--- a/biology/Botanique/Maerua/Maerua.xlsx
+++ b/biology/Botanique/Maerua/Maerua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maerua est un genre de plantes de la famille des Capparaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (10 septembre 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (10 septembre 2020) :
 Maerua acuminata Oliv.
 Maerua aethiopica (Fenzl) Oliv.
 Maerua andradae Wild
@@ -577,7 +591,7 @@
 Maerua subcordata (Gilg.) DeWolf
 Maerua thomsonii T. Anderson
 Maerua triphylla A. Rich.
-Selon Catalogue of Life                                   (10 septembre 2020)[3] :
+Selon Catalogue of Life                                   (10 septembre 2020) :
 Maerua acuminata Oliver
 Maerua aethiopica (Fenzl) Oliv.
 Maerua andradae Wild
@@ -648,7 +662,7 @@
 Maerua subcordata (Gilg) De Wolf
 Maerua thomsonii T &amp; Anders.
 Maerua triphylla A. Rich.
-Selon The Plant List            (10 septembre 2020)[4] :
+Selon The Plant List            (10 septembre 2020) :
 Maerua acuminata Oliv.
 Maerua aethiopica (Fenzl) Oliv.
 Maerua angolensis DC.
@@ -702,7 +716,7 @@
 Maerua subcordata (Gilg) DeWolf
 Maerua thomsonii T. Anderson
 Maerua triphylla A. Rich.
-Selon Tropicos                                           (10 septembre 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 septembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Maerua acuminata Oliv.
 Maerua aethiopica (Fenzl) Oliv.
 Maerua angolensis DC.
